--- a/backend/uploads_app/resultado.xlsx
+++ b/backend/uploads_app/resultado.xlsx
@@ -34159,7 +34159,7 @@
         </is>
       </c>
       <c r="D508" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O508" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         </is>
       </c>
       <c r="D509" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O509" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         </is>
       </c>
       <c r="D510" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O510" t="inlineStr">
         <is>
@@ -34234,7 +34234,7 @@
         </is>
       </c>
       <c r="D511" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O511" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         </is>
       </c>
       <c r="D512" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O512" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         </is>
       </c>
       <c r="D513" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O513" t="inlineStr">
         <is>
@@ -34309,7 +34309,7 @@
         </is>
       </c>
       <c r="D514" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O514" t="inlineStr">
         <is>
@@ -34334,7 +34334,7 @@
         </is>
       </c>
       <c r="D515" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O515" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         </is>
       </c>
       <c r="D516" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O516" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         </is>
       </c>
       <c r="D517" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O517" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         </is>
       </c>
       <c r="D518" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O518" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         </is>
       </c>
       <c r="D519" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O519" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         </is>
       </c>
       <c r="D520" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O520" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         </is>
       </c>
       <c r="D521" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O521" t="inlineStr">
         <is>
@@ -34509,7 +34509,7 @@
         </is>
       </c>
       <c r="D522" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O522" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         </is>
       </c>
       <c r="D523" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O523" t="inlineStr">
         <is>
@@ -34559,7 +34559,7 @@
         </is>
       </c>
       <c r="D524" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O524" t="inlineStr">
         <is>
@@ -34584,7 +34584,7 @@
         </is>
       </c>
       <c r="D525" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O525" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         </is>
       </c>
       <c r="D526" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O526" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         </is>
       </c>
       <c r="D527" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O527" t="inlineStr">
         <is>
@@ -34659,7 +34659,7 @@
         </is>
       </c>
       <c r="D528" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O528" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         </is>
       </c>
       <c r="D529" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O529" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         </is>
       </c>
       <c r="D530" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O530" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         </is>
       </c>
       <c r="D531" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O531" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         </is>
       </c>
       <c r="D532" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="O532" t="inlineStr">
         <is>

--- a/backend/uploads_app/resultado.xlsx
+++ b/backend/uploads_app/resultado.xlsx
@@ -37130,7 +37130,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -37157,7 +37157,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -37184,7 +37184,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
@@ -37211,7 +37211,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -37238,7 +37238,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
@@ -37265,7 +37265,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -37292,7 +37292,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -37319,7 +37319,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -37346,7 +37346,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -37373,7 +37373,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -37400,7 +37400,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -37427,7 +37427,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -37454,7 +37454,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
@@ -37481,7 +37481,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
@@ -37508,7 +37508,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -37535,7 +37535,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
@@ -37562,7 +37562,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -37589,7 +37589,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -37616,7 +37616,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -37643,7 +37643,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -37670,7 +37670,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -37697,7 +37697,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -37724,7 +37724,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -37751,7 +37751,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -37778,7 +37778,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">

--- a/backend/uploads_app/resultado.xlsx
+++ b/backend/uploads_app/resultado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y289"/>
+  <dimension ref="A1:Y291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="L2" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="L4" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="L6" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="L10" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="L12" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="L13" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="L14" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="L15" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="L16" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="L23" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="L24" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="L26" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="L27" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="L28" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="L29" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="L30" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="L31" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="L32" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="L33" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="L34" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="L37" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="L39" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="L40" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="L41" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         </is>
       </c>
       <c r="L42" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="L43" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="L50" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="L53" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="L54" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45839</v>
+        <v>45664</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="L57" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="L58" s="2" t="n">
-        <v>45841</v>
+        <v>45723</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="L59" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
@@ -6566,7 +6566,11 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Elisangela Arruda Pereira Souza</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -6592,7 +6596,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
@@ -6611,7 +6615,11 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>INGRID BARBOSA DOS SANTOS</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -6637,7 +6645,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
@@ -6656,7 +6664,11 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>ELIANE APARECIDA CARDOSO FRIGO</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -6682,7 +6694,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
@@ -6701,7 +6713,11 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Maria Elza Borges Correia Soares</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -6727,7 +6743,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
@@ -6746,7 +6762,11 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRELLY FIGUEIREDO DA COSTA </t>
+        </is>
+      </c>
       <c r="W64" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -6772,7 +6792,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
@@ -6791,7 +6811,11 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>MARIA VICTORIA NACIMIENTO RAMOS</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -6817,7 +6841,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
@@ -6836,7 +6860,11 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>RAFAEL DAUZAKER NAZARIO</t>
+        </is>
+      </c>
       <c r="W66" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -6862,7 +6890,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
@@ -6881,7 +6909,11 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Andreza Faustino Dias Martins</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -6907,7 +6939,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
@@ -6926,7 +6958,11 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>JOICE SILVA MONASKI</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -6952,7 +6988,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
@@ -6971,7 +7007,11 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROSILENE LESME BENITES VERAS </t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -6997,7 +7037,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
@@ -7016,7 +7056,11 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>REGIANE BRITO</t>
+        </is>
+      </c>
       <c r="W70" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -7042,7 +7086,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
@@ -7061,7 +7105,11 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Celso Eduardo</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -7087,7 +7135,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
@@ -7106,7 +7154,11 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>MARLUCE G. BENITEZ</t>
+        </is>
+      </c>
       <c r="W72" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -7132,7 +7184,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
@@ -7151,7 +7203,11 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Edilson Teixeira Cruz</t>
+        </is>
+      </c>
       <c r="W73" t="inlineStr">
         <is>
           <t>Heveliym Rosana dos Santos Pereira</t>
@@ -7177,7 +7233,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
@@ -7196,7 +7252,11 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>ANDREIA LIMA BORGES</t>
+        </is>
+      </c>
       <c r="W74" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -7222,7 +7282,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
@@ -7241,7 +7301,11 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUCIANA TADEU SCHEIN </t>
+        </is>
+      </c>
       <c r="W75" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7267,7 +7331,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
@@ -7286,7 +7350,11 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antônio Carlos Ibiapina Cambessa </t>
+        </is>
+      </c>
       <c r="W76" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -7312,7 +7380,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
@@ -7331,7 +7399,11 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDIMARA APARECIDA </t>
+        </is>
+      </c>
       <c r="W77" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -7357,7 +7429,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
@@ -7376,7 +7448,11 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>EUNICE FERREIRA ORTIZ  (PROMOÇÃO ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W78" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7402,7 +7478,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
@@ -7421,7 +7497,11 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>CARLA DE SOUZA ALVES ( ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W79" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7447,7 +7527,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
@@ -7466,7 +7546,11 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>SIDNEI PONTIM (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W80" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7492,7 +7576,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
@@ -7511,7 +7595,11 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marlon Pierre </t>
+        </is>
+      </c>
       <c r="W81" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -7537,7 +7625,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
@@ -7556,7 +7644,11 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>THAISA CRISTINA COSTA DOS SANTOS SACCHI</t>
+        </is>
+      </c>
       <c r="W82" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7582,7 +7674,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
@@ -7601,7 +7693,11 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>RODRIGO PETELIN FRANCA</t>
+        </is>
+      </c>
       <c r="W83" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7627,7 +7723,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
@@ -7646,7 +7742,11 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>MARCELA MARQUES DE CARVALHO URCINO</t>
+        </is>
+      </c>
       <c r="W84" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -7672,7 +7772,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
@@ -7691,7 +7791,11 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karollyni Vitoria </t>
+        </is>
+      </c>
       <c r="W85" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -7717,7 +7821,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
@@ -7736,7 +7840,11 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gleice de Almeida Assis </t>
+        </is>
+      </c>
       <c r="W86" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7762,7 +7870,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
@@ -7781,7 +7889,11 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>DANIEL DE SOUZA SILVA MENEZES</t>
+        </is>
+      </c>
       <c r="W87" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7807,7 +7919,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
@@ -7826,7 +7938,11 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>LIDIANE LIMA DOS SANTOS</t>
+        </is>
+      </c>
       <c r="W88" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7852,7 +7968,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
@@ -7871,7 +7987,11 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CRISTIANO RODRIGUES DOS SANTOS </t>
+        </is>
+      </c>
       <c r="W89" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7897,7 +8017,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
@@ -7916,7 +8036,11 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>JUCIANY AYALA</t>
+        </is>
+      </c>
       <c r="W90" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -7942,7 +8066,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
@@ -7961,7 +8085,11 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Paulo Henrique Bastos machado</t>
+        </is>
+      </c>
       <c r="W91" t="inlineStr">
         <is>
           <t>Allison Vinicius Lopes Camilo</t>
@@ -7987,7 +8115,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
@@ -8006,7 +8134,11 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>ANTONIA SUELI</t>
+        </is>
+      </c>
       <c r="W92" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -8032,7 +8164,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
@@ -8051,7 +8183,11 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>LUANA CASALI</t>
+        </is>
+      </c>
       <c r="W93" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -8077,7 +8213,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
@@ -8096,7 +8232,11 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>MONICA BENITES GARCIA TINEU</t>
+        </is>
+      </c>
       <c r="W94" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -8122,7 +8262,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
@@ -8141,7 +8281,11 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tatiusce Alves Gedro </t>
+        </is>
+      </c>
       <c r="W95" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -8167,7 +8311,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
@@ -8186,7 +8330,11 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Marivange</t>
+        </is>
+      </c>
       <c r="W96" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -8212,7 +8360,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
@@ -8231,7 +8379,11 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>JUNIOR DA SILVA LINO</t>
+        </is>
+      </c>
       <c r="W97" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -8257,7 +8409,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
@@ -8276,7 +8428,11 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>ROSANA PEREIRA</t>
+        </is>
+      </c>
       <c r="W98" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -8302,7 +8458,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
@@ -8321,7 +8477,11 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALBINO CANDIDO </t>
+        </is>
+      </c>
       <c r="W99" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -8347,7 +8507,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
@@ -8366,7 +8526,11 @@
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>CLAUDINEI ZANFORLIN</t>
+        </is>
+      </c>
       <c r="W100" t="inlineStr">
         <is>
           <t>Brenda Dos Santos Vasques</t>
@@ -8392,7 +8556,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
@@ -8411,7 +8575,11 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>MOISES DOS PASSOS VICENTE FILHO</t>
+        </is>
+      </c>
       <c r="W101" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -8437,7 +8605,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
@@ -8456,7 +8624,11 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>GELSON ANGELO DA SILVA</t>
+        </is>
+      </c>
       <c r="W102" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -8482,7 +8654,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
@@ -8501,7 +8673,11 @@
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorrany Ramalho </t>
+        </is>
+      </c>
       <c r="W103" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -8527,7 +8703,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
@@ -8546,7 +8722,11 @@
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>MATHEUS GRAVA</t>
+        </is>
+      </c>
       <c r="W104" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -8572,7 +8752,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
@@ -8591,7 +8771,11 @@
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>LIRIA ROMEIRO</t>
+        </is>
+      </c>
       <c r="W105" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -8617,7 +8801,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
@@ -8636,7 +8820,11 @@
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>ELIZETE APARECIDA VOGADO (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W106" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -8662,7 +8850,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
@@ -8681,7 +8869,11 @@
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>SILVANETE DE BRITO (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W107" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -8707,7 +8899,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
@@ -8726,7 +8918,11 @@
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>MARILITA FUJIKO YAMAMOTO COSTA (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W108" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -8752,7 +8948,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
@@ -8771,7 +8967,11 @@
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROSA MARIA RODRIGUES PIMENTA LIDIO (ADESÃO GRATUITA) </t>
+        </is>
+      </c>
       <c r="W109" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -8797,7 +8997,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
@@ -8816,7 +9016,11 @@
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>MARIA IVONEIDE DE AMORIM (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W110" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -8842,7 +9046,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
@@ -8861,7 +9065,11 @@
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>VIVIANE MIRANDA DA SILVA RIBEIRO (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W111" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -8887,7 +9095,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
@@ -8906,7 +9114,11 @@
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Aline Ferreira de Souza Nunes</t>
+        </is>
+      </c>
       <c r="W112" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -8932,7 +9144,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
@@ -8951,7 +9163,11 @@
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ITAMAR FREITAS VARELA </t>
+        </is>
+      </c>
       <c r="W113" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -8977,7 +9193,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
@@ -8996,7 +9212,11 @@
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARIA APARECIDA GELAIM DA ROCHA </t>
+        </is>
+      </c>
       <c r="W114" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9022,7 +9242,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
@@ -9041,7 +9261,11 @@
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>Maria de Fátima Andrade da Costa</t>
+        </is>
+      </c>
       <c r="W115" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -9067,7 +9291,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
@@ -9086,7 +9310,11 @@
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>MARCIA GRANADO PERES DE LIMA</t>
+        </is>
+      </c>
       <c r="W116" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9112,7 +9340,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -9131,7 +9359,11 @@
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>Otavio Gabriel Benachio Floriano (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W117" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9157,7 +9389,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
@@ -9176,7 +9408,11 @@
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>ELISABETH APARECIDA GUERRA SOUZA</t>
+        </is>
+      </c>
       <c r="W118" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -9202,7 +9438,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
@@ -9221,7 +9457,11 @@
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>STHEFFANY RODRIGUES GUTIERREZ VEGA (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W119" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9247,7 +9487,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
@@ -9266,7 +9506,11 @@
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARIA EDUARDA JARCEM DE SOUZA </t>
+        </is>
+      </c>
       <c r="W120" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -9292,7 +9536,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
@@ -9311,7 +9555,11 @@
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>ANA P. OLIVEIRA</t>
+        </is>
+      </c>
       <c r="W121" t="inlineStr">
         <is>
           <t>Sandi Suellen Ferreira</t>
@@ -9337,7 +9585,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
@@ -9356,7 +9604,11 @@
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>DIEGO PERON</t>
+        </is>
+      </c>
       <c r="W122" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -9382,7 +9634,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
@@ -9401,7 +9653,11 @@
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FATIMA TEREZINHA SANTIM DOS SANTOS </t>
+        </is>
+      </c>
       <c r="W123" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9427,7 +9683,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
@@ -9446,7 +9702,11 @@
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>Rodrigo Miranda Zanoni</t>
+        </is>
+      </c>
       <c r="W124" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -9472,7 +9732,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
@@ -9491,7 +9751,11 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>EVARISTO LUIZ GOMES</t>
+        </is>
+      </c>
       <c r="W125" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -9517,7 +9781,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
@@ -9536,7 +9800,11 @@
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>Patricia ótica - Indicação Brenda</t>
+        </is>
+      </c>
       <c r="W126" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -9562,7 +9830,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
@@ -9581,7 +9849,11 @@
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>Fernando Enrique</t>
+        </is>
+      </c>
       <c r="W127" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -9607,7 +9879,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
@@ -9626,7 +9898,11 @@
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>WAGNER  RABELO</t>
+        </is>
+      </c>
       <c r="W128" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -9652,7 +9928,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
@@ -9671,7 +9947,11 @@
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANDREIA TRUGILIO MOURA </t>
+        </is>
+      </c>
       <c r="W129" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9697,7 +9977,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
@@ -9716,7 +9996,11 @@
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DOURIVAL CÁCERES </t>
+        </is>
+      </c>
       <c r="W130" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9742,7 +10026,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
@@ -9761,7 +10045,11 @@
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROSIMARI DE OLIVEIRA CARDOZO </t>
+        </is>
+      </c>
       <c r="W131" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9787,7 +10075,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
@@ -9806,7 +10094,11 @@
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>JULHA CABREIRA DE ALMEIDA (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W132" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9832,7 +10124,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
@@ -9851,7 +10143,11 @@
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUCAS AMARAL CANDIDO </t>
+        </is>
+      </c>
       <c r="W133" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9877,7 +10173,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
@@ -9896,7 +10192,11 @@
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francelina ALVES </t>
+        </is>
+      </c>
       <c r="W134" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -9922,7 +10222,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
@@ -9941,7 +10241,11 @@
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>ISAIAS GONCALVES BATISTA</t>
+        </is>
+      </c>
       <c r="W135" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -9967,7 +10271,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
@@ -9986,7 +10290,11 @@
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>JOSIANE C DE ALMEIDA</t>
+        </is>
+      </c>
       <c r="W136" t="inlineStr">
         <is>
           <t>Maykon Martins Nunes</t>
@@ -10012,7 +10320,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
@@ -10031,7 +10339,11 @@
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>MARINA RODRIGUES DE SALES</t>
+        </is>
+      </c>
       <c r="W137" t="inlineStr">
         <is>
           <t>Maria Heloisa Oliveira Camargo</t>
@@ -10057,7 +10369,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
@@ -10076,7 +10388,11 @@
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ROSIMARA RODELINE GONÇALVES</t>
+        </is>
+      </c>
       <c r="W138" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -10102,7 +10418,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
@@ -10121,7 +10437,11 @@
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>IRIS BRAGA ROSA</t>
+        </is>
+      </c>
       <c r="W139" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -10147,7 +10467,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
@@ -10166,7 +10486,11 @@
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSE WILLIAN AZEREDO </t>
+        </is>
+      </c>
       <c r="W140" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -10192,7 +10516,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
@@ -10211,7 +10535,11 @@
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>JOAO P. DA S. LIMA</t>
+        </is>
+      </c>
       <c r="W141" t="inlineStr">
         <is>
           <t>Maykon Martins Nunes</t>
@@ -10237,7 +10565,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
@@ -10256,7 +10584,11 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maria Nascimento da Silva </t>
+        </is>
+      </c>
       <c r="W142" t="inlineStr">
         <is>
           <t>Brenda Dos Santos Vasques</t>
@@ -10282,7 +10614,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
@@ -10301,7 +10633,11 @@
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>Valdir Antonio Rosa</t>
+        </is>
+      </c>
       <c r="W143" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -10327,7 +10663,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
@@ -10346,7 +10682,11 @@
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>SEBASTINA A. DE CASTRO</t>
+        </is>
+      </c>
       <c r="W144" t="inlineStr">
         <is>
           <t>Maykon Martins Nunes</t>
@@ -10372,7 +10712,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
@@ -10391,7 +10731,11 @@
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>ROSLAINE FERREIRA</t>
+        </is>
+      </c>
       <c r="W145" t="inlineStr">
         <is>
           <t>Maykon Martins Nunes</t>
@@ -10417,7 +10761,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
@@ -10436,7 +10780,11 @@
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elis Dias Antunes </t>
+        </is>
+      </c>
       <c r="W146" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -10462,7 +10810,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
@@ -10481,7 +10829,11 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>NATALIA S. SANTOS</t>
+        </is>
+      </c>
       <c r="W147" t="inlineStr">
         <is>
           <t>Maykon Martins Nunes</t>
@@ -10507,7 +10859,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
@@ -10526,7 +10878,11 @@
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>ANA CRISTIANA BARBOSA DA SILVA ALVES</t>
+        </is>
+      </c>
       <c r="W148" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -10552,7 +10908,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
@@ -10571,7 +10927,11 @@
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>FABIO JUNIOR</t>
+        </is>
+      </c>
       <c r="W149" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -10597,7 +10957,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
@@ -10616,7 +10976,11 @@
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>ELIANE MARIA TEIXEIRA</t>
+        </is>
+      </c>
       <c r="W150" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -10642,7 +11006,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
@@ -10661,7 +11025,11 @@
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>JULIANA GOMES NOIA YAMAMOTO</t>
+        </is>
+      </c>
       <c r="W151" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -10687,7 +11055,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
@@ -10706,7 +11074,11 @@
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RENATA LARA DE ANDRADE </t>
+        </is>
+      </c>
       <c r="W152" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -10732,7 +11104,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
@@ -10751,7 +11123,11 @@
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>VANIDIO BONFANTE JUNIOR</t>
+        </is>
+      </c>
       <c r="W153" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -10777,7 +11153,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
@@ -10796,7 +11172,11 @@
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NATALLY DIAS KARRU FREITAS</t>
+        </is>
+      </c>
       <c r="W154" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -10822,7 +11202,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
@@ -10841,7 +11221,11 @@
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>JADY NUZIELY</t>
+        </is>
+      </c>
       <c r="W155" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -10867,7 +11251,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
@@ -10886,7 +11270,11 @@
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cristiane Resende de Souza </t>
+        </is>
+      </c>
       <c r="W156" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -10912,7 +11300,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
@@ -10931,7 +11319,11 @@
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cristiane mendes nunes </t>
+        </is>
+      </c>
       <c r="W157" t="inlineStr">
         <is>
           <t>Heveliym Rosana dos Santos Pereira</t>
@@ -10957,7 +11349,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
@@ -10976,7 +11368,11 @@
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>ROSIMEIRE LURIKO NOZAKI (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W158" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -11002,7 +11398,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
@@ -11021,7 +11417,11 @@
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SILVIA BEZERRA DE MACEDO </t>
+        </is>
+      </c>
       <c r="W159" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -11047,7 +11447,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
@@ -11066,7 +11466,11 @@
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>JOAREZ MARTINS DE PAULA (PROMOÇÃO DE ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W160" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -11092,7 +11496,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
@@ -11111,7 +11515,11 @@
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>YADIRA SILVA ALBINO (PROMOÇÃO DE GRATUIDADE)</t>
+        </is>
+      </c>
       <c r="W161" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -11137,7 +11545,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
@@ -11156,7 +11564,11 @@
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>RONEY EDSON CAMPOS MINELLA (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W162" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -11182,7 +11594,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
@@ -11201,7 +11613,11 @@
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>Taurina Aurora</t>
+        </is>
+      </c>
       <c r="W163" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -11227,7 +11643,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
@@ -11246,7 +11662,11 @@
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Márcia Pereira Augusto </t>
+        </is>
+      </c>
       <c r="W164" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -11272,7 +11692,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
@@ -11291,7 +11711,11 @@
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>CLEOMIR DE LIMA ROTEL</t>
+        </is>
+      </c>
       <c r="W165" t="inlineStr">
         <is>
           <t>Allison Vinicius Lopes Camilo</t>
@@ -11317,7 +11741,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
@@ -11336,7 +11760,11 @@
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>Silvio da silva dos santos</t>
+        </is>
+      </c>
       <c r="W166" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -11362,7 +11790,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
@@ -11381,7 +11809,11 @@
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>Vanda Maria</t>
+        </is>
+      </c>
       <c r="W167" t="inlineStr">
         <is>
           <t>Allison Vinicius Lopes Camilo</t>
@@ -11407,7 +11839,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
@@ -11426,7 +11858,11 @@
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr"/>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelita Lina dos Anjos</t>
+        </is>
+      </c>
       <c r="W168" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -11452,7 +11888,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
@@ -11471,7 +11907,11 @@
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr"/>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TATIANE CANTEIRO DE ALMEIDA </t>
+        </is>
+      </c>
       <c r="W169" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -11497,7 +11937,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
@@ -11516,7 +11956,11 @@
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr"/>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>Renata da Paz</t>
+        </is>
+      </c>
       <c r="W170" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -11542,7 +11986,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
@@ -11561,7 +12005,11 @@
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr"/>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>Patrícia Mendonça Vargas</t>
+        </is>
+      </c>
       <c r="W171" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -11587,7 +12035,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
@@ -11606,7 +12054,11 @@
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr"/>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>DENICE DE SOUZA  S</t>
+        </is>
+      </c>
       <c r="W172" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -11632,7 +12084,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
@@ -11651,7 +12103,11 @@
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
-      <c r="V173" t="inlineStr"/>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaqueline Nunes </t>
+        </is>
+      </c>
       <c r="W173" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -11677,7 +12133,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
@@ -11696,7 +12152,11 @@
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr"/>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>Andréia Borges feitosa</t>
+        </is>
+      </c>
       <c r="W174" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -11722,7 +12182,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
@@ -11741,7 +12201,11 @@
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>JULIANO MEDEIROS</t>
+        </is>
+      </c>
       <c r="W175" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -11767,7 +12231,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
@@ -11786,7 +12250,11 @@
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
-      <c r="V176" t="inlineStr"/>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>JOSE RICARDO SEVERINO</t>
+        </is>
+      </c>
       <c r="W176" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -11812,7 +12280,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
@@ -11831,7 +12299,11 @@
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
-      <c r="V177" t="inlineStr"/>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JULIANA CRISTINA SALUSTIANO TEIXEIRA </t>
+        </is>
+      </c>
       <c r="W177" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -11857,7 +12329,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
@@ -11876,7 +12348,11 @@
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr"/>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIZ ALBERTO GENTILE </t>
+        </is>
+      </c>
       <c r="W178" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -11902,7 +12378,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
@@ -11921,7 +12397,11 @@
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr"/>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>ROSANA FERREIRA VIEIRA</t>
+        </is>
+      </c>
       <c r="W179" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -11947,7 +12427,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
@@ -11966,7 +12446,11 @@
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>GIlmar Pereira da SIlva</t>
+        </is>
+      </c>
       <c r="W180" t="inlineStr">
         <is>
           <t>Allison Vinicius Lopes Camilo</t>
@@ -11992,7 +12476,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
@@ -12011,7 +12495,11 @@
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr"/>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>Sandra Caetano da Silva</t>
+        </is>
+      </c>
       <c r="W181" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -12037,7 +12525,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
@@ -12056,7 +12544,11 @@
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
-      <c r="V182" t="inlineStr"/>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROSANE VITAL MOREIRA </t>
+        </is>
+      </c>
       <c r="W182" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -12082,7 +12574,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
@@ -12101,7 +12593,11 @@
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROZINEI APARECIDA BARBOZA </t>
+        </is>
+      </c>
       <c r="W183" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -12127,7 +12623,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
@@ -12146,7 +12642,11 @@
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RICARDO JOSE MOREIRA </t>
+        </is>
+      </c>
       <c r="W184" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -12172,7 +12672,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
@@ -12191,7 +12691,11 @@
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>Andreia Klier</t>
+        </is>
+      </c>
       <c r="W185" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -12217,7 +12721,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
@@ -12236,7 +12740,11 @@
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>ELENITA BARBOSA LEMES</t>
+        </is>
+      </c>
       <c r="W186" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -12262,7 +12770,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
@@ -12281,7 +12789,11 @@
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>MARCIA DE LIMA AJALA</t>
+        </is>
+      </c>
       <c r="W187" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -12307,7 +12819,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
@@ -12326,7 +12838,11 @@
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr"/>
-      <c r="V188" t="inlineStr"/>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>ZENILSON</t>
+        </is>
+      </c>
       <c r="W188" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -12352,7 +12868,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
@@ -12371,7 +12887,11 @@
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr"/>
-      <c r="V189" t="inlineStr"/>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>ANDREIA MENDES COELHO</t>
+        </is>
+      </c>
       <c r="W189" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -12397,7 +12917,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
@@ -12416,7 +12936,11 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jussieny de Lima </t>
+        </is>
+      </c>
       <c r="W190" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -12442,7 +12966,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
@@ -12461,7 +12985,11 @@
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AZELIO RODRIGUES </t>
+        </is>
+      </c>
       <c r="W191" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -12487,7 +13015,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
@@ -12506,7 +13034,11 @@
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>MATEUS RIBEIRO</t>
+        </is>
+      </c>
       <c r="W192" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -12532,7 +13064,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
@@ -12551,7 +13083,11 @@
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>EDSON DOS SANTOS</t>
+        </is>
+      </c>
       <c r="W193" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -12577,7 +13113,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
@@ -12596,7 +13132,11 @@
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viviane Aparecida Bezerra </t>
+        </is>
+      </c>
       <c r="W194" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -12622,7 +13162,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
@@ -12641,7 +13181,11 @@
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CARLOS A DIAS </t>
+        </is>
+      </c>
       <c r="W195" t="inlineStr">
         <is>
           <t>Maykon Martins Nunes</t>
@@ -12667,7 +13211,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
@@ -12686,7 +13230,11 @@
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
-      <c r="V196" t="inlineStr"/>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROSIMEIRE BARBOSA GALDINO </t>
+        </is>
+      </c>
       <c r="W196" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -12712,7 +13260,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
@@ -12731,7 +13279,11 @@
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VANDA RIBEIRO </t>
+        </is>
+      </c>
       <c r="W197" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -12757,7 +13309,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
@@ -12776,7 +13328,11 @@
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>PAMELA MIRELA FRANCO AGUEIRO</t>
+        </is>
+      </c>
       <c r="W198" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -12802,7 +13358,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
@@ -12821,7 +13377,11 @@
       <c r="S199" t="inlineStr"/>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr"/>
-      <c r="V199" t="inlineStr"/>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>MIELI SOUZA</t>
+        </is>
+      </c>
       <c r="W199" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -12847,7 +13407,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
@@ -12866,7 +13426,11 @@
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
-      <c r="V200" t="inlineStr"/>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>ANA SOZZI</t>
+        </is>
+      </c>
       <c r="W200" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -12892,7 +13456,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
@@ -12911,7 +13475,11 @@
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
-      <c r="V201" t="inlineStr"/>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>SIRLENE ANANIAS RIBEIRO</t>
+        </is>
+      </c>
       <c r="W201" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -12937,7 +13505,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
@@ -12956,7 +13524,11 @@
       <c r="S202" t="inlineStr"/>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr"/>
-      <c r="V202" t="inlineStr"/>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>OSVALDO JOSE BRANDAO</t>
+        </is>
+      </c>
       <c r="W202" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -12982,7 +13554,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
@@ -13001,7 +13573,11 @@
       <c r="S203" t="inlineStr"/>
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="inlineStr"/>
-      <c r="V203" t="inlineStr"/>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>DINIZ COSMO DUARTE</t>
+        </is>
+      </c>
       <c r="W203" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -13027,7 +13603,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
@@ -13046,7 +13622,11 @@
       <c r="S204" t="inlineStr"/>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
-      <c r="V204" t="inlineStr"/>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>ROSNEIDE APARECIDA VENTURA</t>
+        </is>
+      </c>
       <c r="W204" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -13072,7 +13652,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
@@ -13091,7 +13671,11 @@
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
-      <c r="V205" t="inlineStr"/>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>MONICA DA SILVA SANTOS</t>
+        </is>
+      </c>
       <c r="W205" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -13117,7 +13701,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
@@ -13136,7 +13720,11 @@
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr"/>
-      <c r="V206" t="inlineStr"/>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>PRISCILA ALVES CORREIA</t>
+        </is>
+      </c>
       <c r="W206" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -13162,7 +13750,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
@@ -13181,7 +13769,11 @@
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="inlineStr"/>
-      <c r="V207" t="inlineStr"/>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>KENIO LOPES</t>
+        </is>
+      </c>
       <c r="W207" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -13207,7 +13799,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
@@ -13226,7 +13818,11 @@
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr"/>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelina Lopes Vilhalva</t>
+        </is>
+      </c>
       <c r="W208" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -13252,7 +13848,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
@@ -13271,7 +13867,11 @@
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="inlineStr"/>
-      <c r="V209" t="inlineStr"/>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>SUELEM TELES DA SILVA</t>
+        </is>
+      </c>
       <c r="W209" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -13297,7 +13897,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
@@ -13316,7 +13916,11 @@
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="inlineStr"/>
-      <c r="V210" t="inlineStr"/>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANASTÁCIO GONÇALVES CAMARGO </t>
+        </is>
+      </c>
       <c r="W210" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -13342,7 +13946,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
@@ -13361,7 +13965,11 @@
       <c r="S211" t="inlineStr"/>
       <c r="T211" t="inlineStr"/>
       <c r="U211" t="inlineStr"/>
-      <c r="V211" t="inlineStr"/>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>INES BARZOTTO TONET</t>
+        </is>
+      </c>
       <c r="W211" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -13387,7 +13995,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
@@ -13406,7 +14014,11 @@
       <c r="S212" t="inlineStr"/>
       <c r="T212" t="inlineStr"/>
       <c r="U212" t="inlineStr"/>
-      <c r="V212" t="inlineStr"/>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>JOSIANE MODESTO DE QUEIROZ</t>
+        </is>
+      </c>
       <c r="W212" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -13432,7 +14044,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
@@ -13451,7 +14063,11 @@
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="inlineStr"/>
-      <c r="V213" t="inlineStr"/>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>Leticia Ribeiro Carvalho</t>
+        </is>
+      </c>
       <c r="W213" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -13477,7 +14093,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
@@ -13496,7 +14112,11 @@
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="inlineStr"/>
-      <c r="V214" t="inlineStr"/>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>JOSÉ FERREIRA FONSECA FILHO</t>
+        </is>
+      </c>
       <c r="W214" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -13522,7 +14142,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
@@ -13541,7 +14161,11 @@
       <c r="S215" t="inlineStr"/>
       <c r="T215" t="inlineStr"/>
       <c r="U215" t="inlineStr"/>
-      <c r="V215" t="inlineStr"/>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>APARECIDA DE JESUS</t>
+        </is>
+      </c>
       <c r="W215" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -13567,7 +14191,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
@@ -13586,7 +14210,11 @@
       <c r="S216" t="inlineStr"/>
       <c r="T216" t="inlineStr"/>
       <c r="U216" t="inlineStr"/>
-      <c r="V216" t="inlineStr"/>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>EUNICE NATALIA</t>
+        </is>
+      </c>
       <c r="W216" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -13612,7 +14240,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
@@ -13631,7 +14259,11 @@
       <c r="S217" t="inlineStr"/>
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="inlineStr"/>
-      <c r="V217" t="inlineStr"/>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>FERNANDA PEZZARICO</t>
+        </is>
+      </c>
       <c r="W217" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -13657,7 +14289,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
@@ -13676,7 +14308,11 @@
       <c r="S218" t="inlineStr"/>
       <c r="T218" t="inlineStr"/>
       <c r="U218" t="inlineStr"/>
-      <c r="V218" t="inlineStr"/>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>Bruna Karine Santos</t>
+        </is>
+      </c>
       <c r="W218" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -13702,7 +14338,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
@@ -13721,7 +14357,11 @@
       <c r="S219" t="inlineStr"/>
       <c r="T219" t="inlineStr"/>
       <c r="U219" t="inlineStr"/>
-      <c r="V219" t="inlineStr"/>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>NAGELA DA SILVA</t>
+        </is>
+      </c>
       <c r="W219" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -13747,7 +14387,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
@@ -13766,7 +14406,11 @@
       <c r="S220" t="inlineStr"/>
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="inlineStr"/>
-      <c r="V220" t="inlineStr"/>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>Valdiceia Cárdenas da Silva Pereira</t>
+        </is>
+      </c>
       <c r="W220" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -13792,7 +14436,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
@@ -13811,7 +14455,11 @@
       <c r="S221" t="inlineStr"/>
       <c r="T221" t="inlineStr"/>
       <c r="U221" t="inlineStr"/>
-      <c r="V221" t="inlineStr"/>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>SILVANIA FARIAS PAULA</t>
+        </is>
+      </c>
       <c r="W221" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -13837,7 +14485,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
@@ -13856,7 +14504,11 @@
       <c r="S222" t="inlineStr"/>
       <c r="T222" t="inlineStr"/>
       <c r="U222" t="inlineStr"/>
-      <c r="V222" t="inlineStr"/>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>CRISTIANE DE SOUZA</t>
+        </is>
+      </c>
       <c r="W222" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -13882,7 +14534,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
@@ -13901,7 +14553,11 @@
       <c r="S223" t="inlineStr"/>
       <c r="T223" t="inlineStr"/>
       <c r="U223" t="inlineStr"/>
-      <c r="V223" t="inlineStr"/>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALTEMIR  PEREIRA </t>
+        </is>
+      </c>
       <c r="W223" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -13927,7 +14583,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
@@ -13946,7 +14602,11 @@
       <c r="S224" t="inlineStr"/>
       <c r="T224" t="inlineStr"/>
       <c r="U224" t="inlineStr"/>
-      <c r="V224" t="inlineStr"/>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>Cleonice Neves Ferreira Barbosa</t>
+        </is>
+      </c>
       <c r="W224" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -13972,7 +14632,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
@@ -13991,7 +14651,11 @@
       <c r="S225" t="inlineStr"/>
       <c r="T225" t="inlineStr"/>
       <c r="U225" t="inlineStr"/>
-      <c r="V225" t="inlineStr"/>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucas Rodrigues Justino Bonfim </t>
+        </is>
+      </c>
       <c r="W225" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14017,7 +14681,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
@@ -14036,7 +14700,11 @@
       <c r="S226" t="inlineStr"/>
       <c r="T226" t="inlineStr"/>
       <c r="U226" t="inlineStr"/>
-      <c r="V226" t="inlineStr"/>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Everton Sverssut </t>
+        </is>
+      </c>
       <c r="W226" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14062,7 +14730,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
@@ -14081,7 +14749,11 @@
       <c r="S227" t="inlineStr"/>
       <c r="T227" t="inlineStr"/>
       <c r="U227" t="inlineStr"/>
-      <c r="V227" t="inlineStr"/>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>EMERSON CABRAL VEGA</t>
+        </is>
+      </c>
       <c r="W227" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14107,7 +14779,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
@@ -14126,7 +14798,11 @@
       <c r="S228" t="inlineStr"/>
       <c r="T228" t="inlineStr"/>
       <c r="U228" t="inlineStr"/>
-      <c r="V228" t="inlineStr"/>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>Maria Cecília Moreno</t>
+        </is>
+      </c>
       <c r="W228" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14152,7 +14828,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
@@ -14171,7 +14847,11 @@
       <c r="S229" t="inlineStr"/>
       <c r="T229" t="inlineStr"/>
       <c r="U229" t="inlineStr"/>
-      <c r="V229" t="inlineStr"/>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SILVANA CARDOSO SANTOS PAIVA </t>
+        </is>
+      </c>
       <c r="W229" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -14197,7 +14877,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
@@ -14216,7 +14896,11 @@
       <c r="S230" t="inlineStr"/>
       <c r="T230" t="inlineStr"/>
       <c r="U230" t="inlineStr"/>
-      <c r="V230" t="inlineStr"/>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>SINESIA PINHEIRO DE ALMEIDA DA SILVA</t>
+        </is>
+      </c>
       <c r="W230" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -14242,7 +14926,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
@@ -14261,7 +14945,11 @@
       <c r="S231" t="inlineStr"/>
       <c r="T231" t="inlineStr"/>
       <c r="U231" t="inlineStr"/>
-      <c r="V231" t="inlineStr"/>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brígida de castro </t>
+        </is>
+      </c>
       <c r="W231" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14287,7 +14975,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
@@ -14306,7 +14994,11 @@
       <c r="S232" t="inlineStr"/>
       <c r="T232" t="inlineStr"/>
       <c r="U232" t="inlineStr"/>
-      <c r="V232" t="inlineStr"/>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>MARIA IZABEL DALTO GARCIA (ADESÃO GRATUITA)</t>
+        </is>
+      </c>
       <c r="W232" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -14332,7 +15024,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
@@ -14351,7 +15043,11 @@
       <c r="S233" t="inlineStr"/>
       <c r="T233" t="inlineStr"/>
       <c r="U233" t="inlineStr"/>
-      <c r="V233" t="inlineStr"/>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>WALMOR DA SILVA LOURENCO</t>
+        </is>
+      </c>
       <c r="W233" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14377,7 +15073,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
@@ -14396,7 +15092,11 @@
       <c r="S234" t="inlineStr"/>
       <c r="T234" t="inlineStr"/>
       <c r="U234" t="inlineStr"/>
-      <c r="V234" t="inlineStr"/>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Katia Fabiana Quintana</t>
+        </is>
+      </c>
       <c r="W234" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14422,7 +15122,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
@@ -14441,7 +15141,11 @@
       <c r="S235" t="inlineStr"/>
       <c r="T235" t="inlineStr"/>
       <c r="U235" t="inlineStr"/>
-      <c r="V235" t="inlineStr"/>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>PRISCILA FLORES DE SOUZA VERAO</t>
+        </is>
+      </c>
       <c r="W235" t="inlineStr">
         <is>
           <t>Maria Heloisa Oliveira Camargo</t>
@@ -14467,7 +15171,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
@@ -14486,7 +15190,11 @@
       <c r="S236" t="inlineStr"/>
       <c r="T236" t="inlineStr"/>
       <c r="U236" t="inlineStr"/>
-      <c r="V236" t="inlineStr"/>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>ANDREIA VANESSA ORTIZ DA SILVA NUNES</t>
+        </is>
+      </c>
       <c r="W236" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -14512,7 +15220,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
@@ -14531,7 +15239,11 @@
       <c r="S237" t="inlineStr"/>
       <c r="T237" t="inlineStr"/>
       <c r="U237" t="inlineStr"/>
-      <c r="V237" t="inlineStr"/>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">simone Marcelino da Silva </t>
+        </is>
+      </c>
       <c r="W237" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14557,7 +15269,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
@@ -14576,7 +15288,11 @@
       <c r="S238" t="inlineStr"/>
       <c r="T238" t="inlineStr"/>
       <c r="U238" t="inlineStr"/>
-      <c r="V238" t="inlineStr"/>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>Andressa Lavratti</t>
+        </is>
+      </c>
       <c r="W238" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14602,7 +15318,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
@@ -14621,7 +15337,11 @@
       <c r="S239" t="inlineStr"/>
       <c r="T239" t="inlineStr"/>
       <c r="U239" t="inlineStr"/>
-      <c r="V239" t="inlineStr"/>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maykson Alone dos Santos Bublitz </t>
+        </is>
+      </c>
       <c r="W239" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14647,7 +15367,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
@@ -14666,7 +15386,11 @@
       <c r="S240" t="inlineStr"/>
       <c r="T240" t="inlineStr"/>
       <c r="U240" t="inlineStr"/>
-      <c r="V240" t="inlineStr"/>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>LUIZ JOSE</t>
+        </is>
+      </c>
       <c r="W240" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -14692,7 +15416,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
@@ -14711,7 +15435,11 @@
       <c r="S241" t="inlineStr"/>
       <c r="T241" t="inlineStr"/>
       <c r="U241" t="inlineStr"/>
-      <c r="V241" t="inlineStr"/>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>HOZANA MOREIRA DA SILVA GOMES</t>
+        </is>
+      </c>
       <c r="W241" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14737,7 +15465,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
@@ -14756,7 +15484,11 @@
       <c r="S242" t="inlineStr"/>
       <c r="T242" t="inlineStr"/>
       <c r="U242" t="inlineStr"/>
-      <c r="V242" t="inlineStr"/>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sandra Albuquerque de Oliveira Almeida </t>
+        </is>
+      </c>
       <c r="W242" t="inlineStr">
         <is>
           <t>Brenda Dos Santos Vasques</t>
@@ -14782,7 +15514,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
@@ -14801,7 +15533,11 @@
       <c r="S243" t="inlineStr"/>
       <c r="T243" t="inlineStr"/>
       <c r="U243" t="inlineStr"/>
-      <c r="V243" t="inlineStr"/>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>TALITA D. MATOS</t>
+        </is>
+      </c>
       <c r="W243" t="inlineStr">
         <is>
           <t>Maykon Martins Nunes</t>
@@ -14827,7 +15563,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
@@ -14846,7 +15582,11 @@
       <c r="S244" t="inlineStr"/>
       <c r="T244" t="inlineStr"/>
       <c r="U244" t="inlineStr"/>
-      <c r="V244" t="inlineStr"/>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CARLOS BALBINO  </t>
+        </is>
+      </c>
       <c r="W244" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -14872,7 +15612,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
@@ -14891,7 +15631,11 @@
       <c r="S245" t="inlineStr"/>
       <c r="T245" t="inlineStr"/>
       <c r="U245" t="inlineStr"/>
-      <c r="V245" t="inlineStr"/>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>MICHAEL WESLEY</t>
+        </is>
+      </c>
       <c r="W245" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -14917,7 +15661,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
@@ -14936,7 +15680,11 @@
       <c r="S246" t="inlineStr"/>
       <c r="T246" t="inlineStr"/>
       <c r="U246" t="inlineStr"/>
-      <c r="V246" t="inlineStr"/>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  MARCIA ALVES BARBOSA</t>
+        </is>
+      </c>
       <c r="W246" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -14962,7 +15710,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
@@ -14981,7 +15729,11 @@
       <c r="S247" t="inlineStr"/>
       <c r="T247" t="inlineStr"/>
       <c r="U247" t="inlineStr"/>
-      <c r="V247" t="inlineStr"/>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>ENIO VAGNER CARNEIRO</t>
+        </is>
+      </c>
       <c r="W247" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -15007,7 +15759,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
@@ -15026,7 +15778,11 @@
       <c r="S248" t="inlineStr"/>
       <c r="T248" t="inlineStr"/>
       <c r="U248" t="inlineStr"/>
-      <c r="V248" t="inlineStr"/>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FABIANA SOARES DA SILVA </t>
+        </is>
+      </c>
       <c r="W248" t="inlineStr">
         <is>
           <t>Brenda Dos Santos Vasques</t>
@@ -15052,7 +15808,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
@@ -15071,7 +15827,11 @@
       <c r="S249" t="inlineStr"/>
       <c r="T249" t="inlineStr"/>
       <c r="U249" t="inlineStr"/>
-      <c r="V249" t="inlineStr"/>
+      <c r="V249" t="inlineStr">
+        <is>
+          <t>Michelly Triers</t>
+        </is>
+      </c>
       <c r="W249" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -15097,7 +15857,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
@@ -15116,7 +15876,11 @@
       <c r="S250" t="inlineStr"/>
       <c r="T250" t="inlineStr"/>
       <c r="U250" t="inlineStr"/>
-      <c r="V250" t="inlineStr"/>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANDERSON VASQUES DOS SANTOS </t>
+        </is>
+      </c>
       <c r="W250" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -15142,7 +15906,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
@@ -15161,7 +15925,11 @@
       <c r="S251" t="inlineStr"/>
       <c r="T251" t="inlineStr"/>
       <c r="U251" t="inlineStr"/>
-      <c r="V251" t="inlineStr"/>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>ANA PAULA FELIPE</t>
+        </is>
+      </c>
       <c r="W251" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -15187,7 +15955,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
@@ -15206,7 +15974,11 @@
       <c r="S252" t="inlineStr"/>
       <c r="T252" t="inlineStr"/>
       <c r="U252" t="inlineStr"/>
-      <c r="V252" t="inlineStr"/>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>SIMONE GOMES BRONEL</t>
+        </is>
+      </c>
       <c r="W252" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -15232,7 +16004,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
@@ -15251,7 +16023,11 @@
       <c r="S253" t="inlineStr"/>
       <c r="T253" t="inlineStr"/>
       <c r="U253" t="inlineStr"/>
-      <c r="V253" t="inlineStr"/>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>Leticia Veronica Machado</t>
+        </is>
+      </c>
       <c r="W253" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -15277,7 +16053,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
@@ -15296,7 +16072,11 @@
       <c r="S254" t="inlineStr"/>
       <c r="T254" t="inlineStr"/>
       <c r="U254" t="inlineStr"/>
-      <c r="V254" t="inlineStr"/>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>Laudelino tomaz</t>
+        </is>
+      </c>
       <c r="W254" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -15322,7 +16102,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
@@ -15341,7 +16121,11 @@
       <c r="S255" t="inlineStr"/>
       <c r="T255" t="inlineStr"/>
       <c r="U255" t="inlineStr"/>
-      <c r="V255" t="inlineStr"/>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>ELAINE APARECIDA DOS SANTOS SILVA</t>
+        </is>
+      </c>
       <c r="W255" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -15367,7 +16151,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
@@ -15386,7 +16170,11 @@
       <c r="S256" t="inlineStr"/>
       <c r="T256" t="inlineStr"/>
       <c r="U256" t="inlineStr"/>
-      <c r="V256" t="inlineStr"/>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>OSORIA FERREIRA LIMA</t>
+        </is>
+      </c>
       <c r="W256" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -15412,7 +16200,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
@@ -15431,7 +16219,11 @@
       <c r="S257" t="inlineStr"/>
       <c r="T257" t="inlineStr"/>
       <c r="U257" t="inlineStr"/>
-      <c r="V257" t="inlineStr"/>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADRIANA SOUZA </t>
+        </is>
+      </c>
       <c r="W257" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -15457,7 +16249,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
@@ -15476,7 +16268,11 @@
       <c r="S258" t="inlineStr"/>
       <c r="T258" t="inlineStr"/>
       <c r="U258" t="inlineStr"/>
-      <c r="V258" t="inlineStr"/>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>Eliane carneiro dos Santos</t>
+        </is>
+      </c>
       <c r="W258" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -15502,7 +16298,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr"/>
@@ -15521,7 +16317,11 @@
       <c r="S259" t="inlineStr"/>
       <c r="T259" t="inlineStr"/>
       <c r="U259" t="inlineStr"/>
-      <c r="V259" t="inlineStr"/>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elizabete Maria dos Santos </t>
+        </is>
+      </c>
       <c r="W259" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -15547,7 +16347,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
@@ -15566,7 +16366,11 @@
       <c r="S260" t="inlineStr"/>
       <c r="T260" t="inlineStr"/>
       <c r="U260" t="inlineStr"/>
-      <c r="V260" t="inlineStr"/>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>HARRISON PEDROSO</t>
+        </is>
+      </c>
       <c r="W260" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -15592,7 +16396,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
@@ -15611,7 +16415,11 @@
       <c r="S261" t="inlineStr"/>
       <c r="T261" t="inlineStr"/>
       <c r="U261" t="inlineStr"/>
-      <c r="V261" t="inlineStr"/>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JEAN CARLOS </t>
+        </is>
+      </c>
       <c r="W261" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -15637,7 +16445,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
@@ -15656,7 +16464,11 @@
       <c r="S262" t="inlineStr"/>
       <c r="T262" t="inlineStr"/>
       <c r="U262" t="inlineStr"/>
-      <c r="V262" t="inlineStr"/>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>ANA F. S. GOVEIA</t>
+        </is>
+      </c>
       <c r="W262" t="inlineStr">
         <is>
           <t>Maykon Martins Nunes</t>
@@ -15682,7 +16494,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
@@ -15701,7 +16513,11 @@
       <c r="S263" t="inlineStr"/>
       <c r="T263" t="inlineStr"/>
       <c r="U263" t="inlineStr"/>
-      <c r="V263" t="inlineStr"/>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ISABELA SOUZA DE OLIVEIRA </t>
+        </is>
+      </c>
       <c r="W263" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -15727,7 +16543,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
@@ -15746,7 +16562,11 @@
       <c r="S264" t="inlineStr"/>
       <c r="T264" t="inlineStr"/>
       <c r="U264" t="inlineStr"/>
-      <c r="V264" t="inlineStr"/>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>SUELI MARTINS</t>
+        </is>
+      </c>
       <c r="W264" t="inlineStr">
         <is>
           <t>Gabriela do Nascimento Souza</t>
@@ -15772,7 +16592,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
@@ -15791,7 +16611,11 @@
       <c r="S265" t="inlineStr"/>
       <c r="T265" t="inlineStr"/>
       <c r="U265" t="inlineStr"/>
-      <c r="V265" t="inlineStr"/>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>Fabio Antunes da Silva</t>
+        </is>
+      </c>
       <c r="W265" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -15817,7 +16641,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
@@ -15836,7 +16660,11 @@
       <c r="S266" t="inlineStr"/>
       <c r="T266" t="inlineStr"/>
       <c r="U266" t="inlineStr"/>
-      <c r="V266" t="inlineStr"/>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>Geni Bernardes da Silva</t>
+        </is>
+      </c>
       <c r="W266" t="inlineStr">
         <is>
           <t>Allison Vinicius Lopes Camilo</t>
@@ -15862,7 +16690,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
@@ -15881,7 +16709,11 @@
       <c r="S267" t="inlineStr"/>
       <c r="T267" t="inlineStr"/>
       <c r="U267" t="inlineStr"/>
-      <c r="V267" t="inlineStr"/>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>Elizabeth Ibanes</t>
+        </is>
+      </c>
       <c r="W267" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -15907,7 +16739,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
@@ -15926,7 +16758,11 @@
       <c r="S268" t="inlineStr"/>
       <c r="T268" t="inlineStr"/>
       <c r="U268" t="inlineStr"/>
-      <c r="V268" t="inlineStr"/>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROSELY DE MORAIS MARQUES </t>
+        </is>
+      </c>
       <c r="W268" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -15952,7 +16788,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
@@ -15971,7 +16807,11 @@
       <c r="S269" t="inlineStr"/>
       <c r="T269" t="inlineStr"/>
       <c r="U269" t="inlineStr"/>
-      <c r="V269" t="inlineStr"/>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>GUILHERME BARÃO</t>
+        </is>
+      </c>
       <c r="W269" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -15997,7 +16837,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
@@ -16016,7 +16856,11 @@
       <c r="S270" t="inlineStr"/>
       <c r="T270" t="inlineStr"/>
       <c r="U270" t="inlineStr"/>
-      <c r="V270" t="inlineStr"/>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>Gabrielly Vitoria Gentil de Sousa</t>
+        </is>
+      </c>
       <c r="W270" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -16042,7 +16886,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
@@ -16061,7 +16905,11 @@
       <c r="S271" t="inlineStr"/>
       <c r="T271" t="inlineStr"/>
       <c r="U271" t="inlineStr"/>
-      <c r="V271" t="inlineStr"/>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>JOANA CATIA</t>
+        </is>
+      </c>
       <c r="W271" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -16087,7 +16935,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
@@ -16106,7 +16954,11 @@
       <c r="S272" t="inlineStr"/>
       <c r="T272" t="inlineStr"/>
       <c r="U272" t="inlineStr"/>
-      <c r="V272" t="inlineStr"/>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosimeire Lacerda </t>
+        </is>
+      </c>
       <c r="W272" t="inlineStr">
         <is>
           <t>Brenda Dos Santos Vasques</t>
@@ -16132,7 +16984,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
@@ -16151,7 +17003,11 @@
       <c r="S273" t="inlineStr"/>
       <c r="T273" t="inlineStr"/>
       <c r="U273" t="inlineStr"/>
-      <c r="V273" t="inlineStr"/>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>CARLOS EDUARDO</t>
+        </is>
+      </c>
       <c r="W273" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -16177,7 +17033,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
@@ -16196,7 +17052,11 @@
       <c r="S274" t="inlineStr"/>
       <c r="T274" t="inlineStr"/>
       <c r="U274" t="inlineStr"/>
-      <c r="V274" t="inlineStr"/>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>CARLOS CESAR</t>
+        </is>
+      </c>
       <c r="W274" t="inlineStr">
         <is>
           <t>Sheila Licia Nascimento Silva</t>
@@ -16222,7 +17082,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
@@ -16241,7 +17101,11 @@
       <c r="S275" t="inlineStr"/>
       <c r="T275" t="inlineStr"/>
       <c r="U275" t="inlineStr"/>
-      <c r="V275" t="inlineStr"/>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>Rosa Maria Gomes Dalefi</t>
+        </is>
+      </c>
       <c r="W275" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -16267,7 +17131,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
@@ -16286,7 +17150,11 @@
       <c r="S276" t="inlineStr"/>
       <c r="T276" t="inlineStr"/>
       <c r="U276" t="inlineStr"/>
-      <c r="V276" t="inlineStr"/>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edson Osmar Lopes Gonçalves </t>
+        </is>
+      </c>
       <c r="W276" t="inlineStr">
         <is>
           <t>Wellia de Sousa</t>
@@ -16312,7 +17180,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
@@ -16331,7 +17199,11 @@
       <c r="S277" t="inlineStr"/>
       <c r="T277" t="inlineStr"/>
       <c r="U277" t="inlineStr"/>
-      <c r="V277" t="inlineStr"/>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>FORTUNATO RODAS OVELAR</t>
+        </is>
+      </c>
       <c r="W277" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -16357,7 +17229,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
@@ -16376,7 +17248,11 @@
       <c r="S278" t="inlineStr"/>
       <c r="T278" t="inlineStr"/>
       <c r="U278" t="inlineStr"/>
-      <c r="V278" t="inlineStr"/>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSÉ CARLOS SANTANA CASTRO </t>
+        </is>
+      </c>
       <c r="W278" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -16402,7 +17278,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
@@ -16421,7 +17297,11 @@
       <c r="S279" t="inlineStr"/>
       <c r="T279" t="inlineStr"/>
       <c r="U279" t="inlineStr"/>
-      <c r="V279" t="inlineStr"/>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IVANETE JANUÁRIO MARIANO </t>
+        </is>
+      </c>
       <c r="W279" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -16447,7 +17327,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr"/>
@@ -16466,7 +17346,11 @@
       <c r="S280" t="inlineStr"/>
       <c r="T280" t="inlineStr"/>
       <c r="U280" t="inlineStr"/>
-      <c r="V280" t="inlineStr"/>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mirian Lima Gabriel </t>
+        </is>
+      </c>
       <c r="W280" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -16492,7 +17376,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
@@ -16511,7 +17395,11 @@
       <c r="S281" t="inlineStr"/>
       <c r="T281" t="inlineStr"/>
       <c r="U281" t="inlineStr"/>
-      <c r="V281" t="inlineStr"/>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RODRIGO PEREIRA DELARMI </t>
+        </is>
+      </c>
       <c r="W281" t="inlineStr">
         <is>
           <t>Andressa Honorio Pereira</t>
@@ -16537,7 +17425,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
@@ -16556,7 +17444,11 @@
       <c r="S282" t="inlineStr"/>
       <c r="T282" t="inlineStr"/>
       <c r="U282" t="inlineStr"/>
-      <c r="V282" t="inlineStr"/>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>DARCI PEREIRA ACOSTA DE SOUSA</t>
+        </is>
+      </c>
       <c r="W282" t="inlineStr">
         <is>
           <t>Lucas Dos Santos Delgado</t>
@@ -16582,7 +17474,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
@@ -16601,7 +17493,11 @@
       <c r="S283" t="inlineStr"/>
       <c r="T283" t="inlineStr"/>
       <c r="U283" t="inlineStr"/>
-      <c r="V283" t="inlineStr"/>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLEBER HENRIQUE M </t>
+        </is>
+      </c>
       <c r="W283" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -16627,7 +17523,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
@@ -16646,7 +17542,11 @@
       <c r="S284" t="inlineStr"/>
       <c r="T284" t="inlineStr"/>
       <c r="U284" t="inlineStr"/>
-      <c r="V284" t="inlineStr"/>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>SHEILA SANTANA DE SOUZA</t>
+        </is>
+      </c>
       <c r="W284" t="inlineStr">
         <is>
           <t>Lucas Dos Santos Delgado</t>
@@ -16672,7 +17572,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
@@ -16691,7 +17591,11 @@
       <c r="S285" t="inlineStr"/>
       <c r="T285" t="inlineStr"/>
       <c r="U285" t="inlineStr"/>
-      <c r="V285" t="inlineStr"/>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mauro cesar bignarte R.B </t>
+        </is>
+      </c>
       <c r="W285" t="inlineStr">
         <is>
           <t>Flaviane Felipe Guevara</t>
@@ -16717,7 +17621,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
@@ -16736,7 +17640,11 @@
       <c r="S286" t="inlineStr"/>
       <c r="T286" t="inlineStr"/>
       <c r="U286" t="inlineStr"/>
-      <c r="V286" t="inlineStr"/>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>JESSYCA LUCIANA R.B</t>
+        </is>
+      </c>
       <c r="W286" t="inlineStr">
         <is>
           <t>Flaviane Felipe Guevara</t>
@@ -16762,7 +17670,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45842</v>
+        <v>45754</v>
       </c>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
@@ -16781,7 +17689,11 @@
       <c r="S287" t="inlineStr"/>
       <c r="T287" t="inlineStr"/>
       <c r="U287" t="inlineStr"/>
-      <c r="V287" t="inlineStr"/>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>Marcio França</t>
+        </is>
+      </c>
       <c r="W287" t="inlineStr">
         <is>
           <t>Naira de Kassia Alves dos Santos</t>
@@ -16827,11 +17739,7 @@
       <c r="T288" t="inlineStr"/>
       <c r="U288" t="inlineStr"/>
       <c r="V288" t="inlineStr"/>
-      <c r="W288" t="inlineStr">
-        <is>
-          <t>Lucas Dos Santos Delgado</t>
-        </is>
-      </c>
+      <c r="W288" t="inlineStr"/>
       <c r="X288" t="inlineStr"/>
       <c r="Y288" t="inlineStr"/>
     </row>
@@ -16864,13 +17772,83 @@
       <c r="T289" t="inlineStr"/>
       <c r="U289" t="inlineStr"/>
       <c r="V289" t="inlineStr"/>
-      <c r="W289" t="inlineStr">
-        <is>
-          <t>Sheila Licia Nascimento Silva</t>
-        </is>
-      </c>
+      <c r="W289" t="inlineStr"/>
       <c r="X289" t="inlineStr"/>
       <c r="Y289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr"/>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>NAIANNNY GUERRIERI</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="inlineStr"/>
+      <c r="O290" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr"/>
+      <c r="R290" t="inlineStr"/>
+      <c r="S290" t="inlineStr"/>
+      <c r="T290" t="inlineStr"/>
+      <c r="U290" t="inlineStr"/>
+      <c r="V290" t="inlineStr"/>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>Lucas Dos Santos Delgado</t>
+        </is>
+      </c>
+      <c r="X290" t="inlineStr"/>
+      <c r="Y290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr"/>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>LUIZ HENRIQUE AGUIAR</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="inlineStr"/>
+      <c r="O291" t="inlineStr"/>
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr"/>
+      <c r="R291" t="inlineStr"/>
+      <c r="S291" t="inlineStr"/>
+      <c r="T291" t="inlineStr"/>
+      <c r="U291" t="inlineStr"/>
+      <c r="V291" t="inlineStr"/>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>Sheila Licia Nascimento Silva</t>
+        </is>
+      </c>
+      <c r="X291" t="inlineStr"/>
+      <c r="Y291" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
